--- a/practice.xlsx
+++ b/practice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ns582\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ns582\OneDrive\Documents\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104884819C74B85ADE58EE" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B3B9E99C-DA3F-458F-8875-7B69AAE8371C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104884819C74B85ADE58EE" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{BCB80755-8075-4440-8513-74FD044C65D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3210" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Choice</t>
   </si>
@@ -90,20 +90,6 @@
   <si>
     <t xml:space="preserve">
 "Go ahead and gamble!"</t>
-  </si>
-  <si>
-    <t>Pictures/IA100_G40.bmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"Try your luck and gamble!"</t>
-  </si>
-  <si>
-    <t>Pictures/IA100_G60.bmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"Be cautious, don't gamble for this one."</t>
   </si>
 </sst>
 </file>
@@ -426,9 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -552,45 +536,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="114" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
